--- a/ZAFRA, REYNANTE.xlsx
+++ b/ZAFRA, REYNANTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>9/7,8/2023</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -726,17 +732,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,6 +749,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,7 +1280,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K92" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K93" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1633,12 +1639,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K92"/>
+  <dimension ref="A2:K93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,14 +1674,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1686,16 +1692,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1708,16 +1714,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1743,18 +1749,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1801,7 +1807,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>61</v>
+        <v>64.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1811,7 +1817,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>60</v>
+        <v>63.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3505,13 +3511,15 @@
       <c r="B91" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="37"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="37">
         <v>2</v>
@@ -3523,34 +3531,58 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
+      <c r="A92" s="38">
+        <v>45200</v>
+      </c>
       <c r="B92" s="15"/>
-      <c r="C92" s="40"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="41"/>
       <c r="E92" s="52"/>
       <c r="F92" s="15"/>
-      <c r="G92" s="40" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="40">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="41"/>
       <c r="I92" s="52"/>
       <c r="J92" s="12"/>
       <c r="K92" s="15"/>
     </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D93" s="37"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H93" s="37"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3588,7 +3620,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,14 +3650,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3636,16 +3668,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="57">
         <v>40360</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3658,14 +3690,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3691,18 +3723,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3749,7 +3781,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.283000000000001</v>
+        <v>37.283000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5364,10 +5396,16 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
-      <c r="B82" s="20"/>
+      <c r="A82" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="37"/>
+      <c r="D82" s="37">
+        <v>3</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -5377,7 +5415,9 @@
       <c r="H82" s="37"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
